--- a/Codemig/System/Optimization_2.xlsx
+++ b/Codemig/System/Optimization_2.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20344"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\GitHub\Jupyter\Codemig\System\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F80D11B-7336-4B6A-9671-0D29794F709E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,19 +52,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -112,7 +98,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -144,27 +130,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,24 +164,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,615 +339,1645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="A1">
-        <v>635</v>
+        <v>785</v>
       </c>
       <c r="B1">
         <v>0.25</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="E1">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F1">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G1">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="H1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1">
-        <v>732.96452059063131</v>
+        <v>317.468748617358</v>
       </c>
       <c r="K1">
-        <v>713.11365028176829</v>
+        <v>310.6656033786808</v>
       </c>
       <c r="L1">
-        <v>18.082655108862902</v>
+        <v>6.342633238677144</v>
       </c>
       <c r="M1">
-        <v>1.7682152</v>
+        <v>0.460512</v>
       </c>
       <c r="N1">
-        <v>1121.4284718362089</v>
+        <v>1701.903563634345</v>
       </c>
       <c r="O1">
-        <v>1.5429044279329209</v>
+        <v>1.625596140375972</v>
       </c>
       <c r="P1">
-        <v>84.642064841478799</v>
+        <v>88.42081025916585</v>
       </c>
       <c r="Q1">
-        <v>5.3797123720566802</v>
+        <v>14.01427052249525</v>
       </c>
       <c r="R1">
-        <v>111.8003179102341</v>
+        <v>154.7135142411143</v>
       </c>
       <c r="S1">
-        <v>555.07685172549452</v>
+        <v>706.4611592782297</v>
       </c>
       <c r="T1">
-        <v>234.89287675224179</v>
+        <v>608.4115466965766</v>
       </c>
       <c r="U1">
-        <v>126.7108267952721</v>
+        <v>111.6288083188945</v>
       </c>
       <c r="V1">
-        <v>173.34925870624221</v>
+        <v>147.1047495572043</v>
       </c>
       <c r="W1">
-        <v>394.08094325970768</v>
+        <v>339.5292885625761</v>
       </c>
       <c r="X1">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="Y1">
         <v>20</v>
       </c>
       <c r="Z1">
-        <v>0.13145673979177841</v>
+        <v>0.1372207417294428</v>
       </c>
       <c r="AA1">
-        <v>0.15934709067877681</v>
+        <v>0.1883810734756326</v>
       </c>
       <c r="AB1">
-        <v>3760.4992728111838</v>
+        <v>4121.88463692181</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28">
       <c r="A2">
-        <v>610</v>
+        <v>775</v>
       </c>
       <c r="B2">
         <v>0.25</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J2">
-        <v>758.93939055216674</v>
+        <v>320.0453442973692</v>
       </c>
       <c r="K2">
-        <v>739.08852024330383</v>
+        <v>313.0321765628802</v>
       </c>
       <c r="L2">
-        <v>18.082655108862902</v>
+        <v>6.541423734488963</v>
       </c>
       <c r="M2">
-        <v>1.7682152</v>
+        <v>0.4717440000000001</v>
       </c>
       <c r="N2">
-        <v>1087.038290301072</v>
+        <v>1644.40673455486</v>
       </c>
       <c r="O2">
-        <v>1.618774852218321</v>
+        <v>1.650750715501566</v>
       </c>
       <c r="P2">
-        <v>88.109099319738874</v>
+        <v>89.57029347436915</v>
       </c>
       <c r="Q2">
-        <v>4.8049545854640154</v>
+        <v>14.52609438602066</v>
       </c>
       <c r="R2">
-        <v>111.5685058386661</v>
+        <v>146.4748608876064</v>
       </c>
       <c r="S2">
-        <v>540.286721485817</v>
+        <v>706.2335239324675</v>
       </c>
       <c r="T2">
-        <v>212.57115659527921</v>
+        <v>557.7111765068313</v>
       </c>
       <c r="U2">
-        <v>126.7108267952721</v>
+        <v>106.6014688267687</v>
       </c>
       <c r="V2">
-        <v>173.34925870624221</v>
+        <v>143.9664858490693</v>
       </c>
       <c r="W2">
-        <v>390.46061008999732</v>
+        <v>346.6896903254965</v>
       </c>
       <c r="X2">
-        <v>0.31000000000000011</v>
+        <v>0.18</v>
       </c>
       <c r="Y2">
         <v>20</v>
       </c>
       <c r="Z2">
-        <v>0.13674526580813881</v>
+        <v>0.1389741341249009</v>
       </c>
       <c r="AA2">
-        <v>0.1643996043758752</v>
+        <v>0.1858625509400304</v>
       </c>
       <c r="AB2">
-        <v>3726.9901777446748</v>
+        <v>4014.971848314714</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="A3">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="B3">
         <v>0.25</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G3">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3">
-        <v>709.77950466051061</v>
+        <v>322.5769986375244</v>
       </c>
       <c r="K3">
-        <v>690.47139529303331</v>
+        <v>315.5638309030355</v>
       </c>
       <c r="L3">
-        <v>17.58151736747719</v>
+        <v>6.541423734488963</v>
       </c>
       <c r="M3">
-        <v>1.7265919999999999</v>
+        <v>0.4717440000000001</v>
       </c>
       <c r="N3">
-        <v>1219.007168117741</v>
+        <v>1605.54007659192</v>
       </c>
       <c r="O3">
-        <v>1.416841903471471</v>
+        <v>1.543537231219416</v>
       </c>
       <c r="P3">
-        <v>78.88141274494815</v>
+        <v>90.90689358527622</v>
       </c>
       <c r="Q3">
-        <v>6.6927282618105082</v>
+        <v>13.65313837717971</v>
       </c>
       <c r="R3">
-        <v>113.7881706215409</v>
+        <v>145.6491884030387</v>
       </c>
       <c r="S3">
-        <v>575.90034773003151</v>
+        <v>696.4410907834811</v>
       </c>
       <c r="T3">
-        <v>314.2006532708109</v>
+        <v>529.1291291108614</v>
       </c>
       <c r="U3">
-        <v>126.7108267952721</v>
+        <v>106.6014688267687</v>
       </c>
       <c r="V3">
-        <v>171.36883854879511</v>
+        <v>143.9664858490693</v>
       </c>
       <c r="W3">
-        <v>381.2678154891143</v>
+        <v>345.2002538279307</v>
       </c>
       <c r="X3">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="Y3">
         <v>20</v>
       </c>
       <c r="Z3">
-        <v>0.1226695879261897</v>
+        <v>0.1419707183245214</v>
       </c>
       <c r="AA3">
-        <v>0.15365131928790521</v>
+        <v>0.1877828879671081</v>
       </c>
       <c r="AB3">
-        <v>3883.0488252538448</v>
+        <v>3977.942623258427</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28">
       <c r="A4">
-        <v>640</v>
+        <v>745</v>
       </c>
       <c r="B4">
         <v>0.25</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4">
-        <v>727.01055094383287</v>
+        <v>325.1911479918837</v>
       </c>
       <c r="K4">
-        <v>707.32839903476975</v>
+        <v>318.1779802573948</v>
       </c>
       <c r="L4">
-        <v>17.934567909063119</v>
+        <v>6.541423734488963</v>
       </c>
       <c r="M4">
-        <v>1.747584</v>
+        <v>0.4717440000000001</v>
       </c>
       <c r="N4">
-        <v>1151.146755750379</v>
+        <v>1568.198659541504</v>
       </c>
       <c r="O4">
-        <v>1.535086319584416</v>
+        <v>1.580026898522549</v>
       </c>
       <c r="P4">
-        <v>84.284802423951291</v>
+        <v>92.79926041602661</v>
       </c>
       <c r="Q4">
-        <v>5.582471690438279</v>
+        <v>12.80198527612328</v>
       </c>
       <c r="R4">
-        <v>112.76198426829269</v>
+        <v>144.704314093177</v>
       </c>
       <c r="S4">
-        <v>556.51047905339271</v>
+        <v>686.5888006691235</v>
       </c>
       <c r="T4">
-        <v>262.37495683915409</v>
+        <v>501.5279096695853</v>
       </c>
       <c r="U4">
-        <v>121.68348730314619</v>
+        <v>106.6014688267687</v>
       </c>
       <c r="V4">
-        <v>168.2320524170386</v>
+        <v>143.9664858490693</v>
       </c>
       <c r="W4">
-        <v>385.96229177779497</v>
+        <v>343.7976772105952</v>
       </c>
       <c r="X4">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="Y4">
         <v>20</v>
       </c>
       <c r="Z4">
-        <v>0.1309117808069141</v>
+        <v>0.1448918296279258</v>
       </c>
       <c r="AA4">
-        <v>0.15997427985087681</v>
+        <v>0.1895863931568544</v>
       </c>
       <c r="AB4">
-        <v>3805.027351077068</v>
+        <v>3936.881525284414</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28">
       <c r="A5">
-        <v>615</v>
+        <v>730</v>
       </c>
       <c r="B5">
         <v>0.25</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5">
-        <v>752.9690906492375</v>
+        <v>327.88030086803</v>
       </c>
       <c r="K5">
-        <v>733.28693874017438</v>
+        <v>320.867133133541</v>
       </c>
       <c r="L5">
-        <v>17.934567909063119</v>
+        <v>6.541423734488963</v>
       </c>
       <c r="M5">
-        <v>1.747584</v>
+        <v>0.4717440000000001</v>
       </c>
       <c r="N5">
-        <v>1114.396716439747</v>
+        <v>1531.624237701898</v>
       </c>
       <c r="O5">
-        <v>1.611172845130846</v>
+        <v>1.615573545382721</v>
       </c>
       <c r="P5">
-        <v>87.761712035108587</v>
+        <v>94.64272187879565</v>
       </c>
       <c r="Q5">
-        <v>4.990002812457873</v>
+        <v>11.97514831984757</v>
       </c>
       <c r="R5">
-        <v>112.52257152012599</v>
+        <v>143.6473397740122</v>
       </c>
       <c r="S5">
-        <v>541.79875878847838</v>
+        <v>676.6751634800828</v>
       </c>
       <c r="T5">
-        <v>237.63067554682189</v>
+        <v>474.890684899027</v>
       </c>
       <c r="U5">
-        <v>121.68348730314619</v>
+        <v>106.6014688267687</v>
       </c>
       <c r="V5">
-        <v>168.2320524170386</v>
+        <v>143.9664858490693</v>
       </c>
       <c r="W5">
-        <v>382.46288652638418</v>
+        <v>342.4745250377347</v>
       </c>
       <c r="X5">
-        <v>0.31000000000000011</v>
+        <v>0.24</v>
       </c>
       <c r="Y5">
         <v>20</v>
       </c>
       <c r="Z5">
-        <v>0.1362153700992729</v>
+        <v>0.1477374492132942</v>
       </c>
       <c r="AA5">
-        <v>0.16499941987002301</v>
+        <v>0.1912780799843766</v>
       </c>
       <c r="AB5">
-        <v>3771.248740471895</v>
+        <v>3892.037108418103</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6">
-        <v>620</v>
+        <v>765</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E6">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6">
-        <v>753.15635584510824</v>
+        <v>329.7713142988497</v>
       </c>
       <c r="K6">
-        <v>732.66513488112082</v>
+        <v>322.4180495410866</v>
       </c>
       <c r="L6">
-        <v>18.66596656398751</v>
+        <v>6.857328757763177</v>
       </c>
       <c r="M6">
-        <v>1.8252543999999999</v>
+        <v>0.495936</v>
       </c>
       <c r="N6">
-        <v>1113.2257234810279</v>
+        <v>1563.100356465283</v>
       </c>
       <c r="O6">
-        <v>1.58747142513745</v>
+        <v>1.528249442704792</v>
       </c>
       <c r="P6">
-        <v>86.678633337779644</v>
+        <v>90.11406355862046</v>
       </c>
       <c r="Q6">
-        <v>5.0118538335864837</v>
+        <v>13.63222108021647</v>
       </c>
       <c r="R6">
-        <v>111.4455027193133</v>
+        <v>143.8276913983601</v>
       </c>
       <c r="S6">
-        <v>551.93749782742566</v>
+        <v>688.3917364756115</v>
       </c>
       <c r="T6">
-        <v>228.48010531326949</v>
+        <v>497.3819060913626</v>
       </c>
       <c r="U6">
-        <v>126.7108267952721</v>
+        <v>111.6288083188945</v>
       </c>
       <c r="V6">
-        <v>173.34925870624221</v>
+        <v>149.0844050168926</v>
       </c>
       <c r="W6">
-        <v>393.1882670495059</v>
+        <v>346.5929207208774</v>
       </c>
       <c r="X6">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="Y6">
         <v>20</v>
       </c>
       <c r="Z6">
-        <v>0.13456326946268951</v>
+        <v>0.1407468833286268</v>
       </c>
       <c r="AA6">
-        <v>0.16195131301636059</v>
+        <v>0.1839841064345776</v>
       </c>
       <c r="AB6">
-        <v>3731.674956686848</v>
+        <v>3923.111499915142</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7">
-        <v>600</v>
+        <v>725</v>
       </c>
       <c r="B7">
         <v>0.25</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G7">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J7">
-        <v>780.03034237748273</v>
+        <v>334.5587194696525</v>
       </c>
       <c r="K7">
-        <v>759.53912141349531</v>
+        <v>327.2054547118894</v>
       </c>
       <c r="L7">
-        <v>18.66596656398751</v>
+        <v>6.857328757763177</v>
       </c>
       <c r="M7">
-        <v>1.8252543999999999</v>
+        <v>0.495936</v>
       </c>
       <c r="N7">
-        <v>1086.309463516131</v>
+        <v>1489.814923127046</v>
       </c>
       <c r="O7">
-        <v>1.6565754514527691</v>
+        <v>1.624537115440787</v>
       </c>
       <c r="P7">
-        <v>89.83646518172138</v>
+        <v>95.10757573789165</v>
       </c>
       <c r="Q7">
-        <v>4.5998476367698871</v>
+        <v>11.33026813941552</v>
       </c>
       <c r="R7">
-        <v>111.6463304133086</v>
+        <v>140.3120186165397</v>
       </c>
       <c r="S7">
-        <v>539.90207440564143</v>
+        <v>682.4451107210514</v>
       </c>
       <c r="T7">
-        <v>210.59432247811071</v>
+        <v>430.8236537635664</v>
       </c>
       <c r="U7">
-        <v>126.7108267952721</v>
+        <v>111.6288083188945</v>
       </c>
       <c r="V7">
-        <v>173.34925870624221</v>
+        <v>149.0844050168926</v>
       </c>
       <c r="W7">
-        <v>389.62334603049021</v>
+        <v>354.8708723228824</v>
       </c>
       <c r="X7">
-        <v>0.31000000000000011</v>
+        <v>0.18</v>
       </c>
       <c r="Y7">
         <v>20</v>
       </c>
       <c r="Z7">
-        <v>0.13938014566242041</v>
+        <v>0.148455010861581</v>
       </c>
       <c r="AA7">
-        <v>0.1668320148811723</v>
+        <v>0.1871625736575389</v>
       </c>
       <c r="AB7">
-        <v>3720.131489163633</v>
+        <v>3782.212482233822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8">
+        <v>710</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>1.44</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>41</v>
+      </c>
+      <c r="J8">
+        <v>337.2017956185784</v>
+      </c>
+      <c r="K8">
+        <v>329.8485308608152</v>
+      </c>
+      <c r="L8">
+        <v>6.857328757763177</v>
+      </c>
+      <c r="M8">
+        <v>0.495936</v>
+      </c>
+      <c r="N8">
+        <v>1457.446564514741</v>
+      </c>
+      <c r="O8">
+        <v>1.666562174629494</v>
+      </c>
+      <c r="P8">
+        <v>97.28700991602142</v>
+      </c>
+      <c r="Q8">
+        <v>10.65596396212206</v>
+      </c>
+      <c r="R8">
+        <v>139.9191872191428</v>
+      </c>
+      <c r="S8">
+        <v>672.3014864711846</v>
+      </c>
+      <c r="T8">
+        <v>407.4610140512773</v>
+      </c>
+      <c r="U8">
+        <v>111.6288083188945</v>
+      </c>
+      <c r="V8">
+        <v>149.0844050168926</v>
+      </c>
+      <c r="W8">
+        <v>353.3462881084961</v>
+      </c>
+      <c r="X8">
+        <v>0.2</v>
+      </c>
+      <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="Z8">
+        <v>0.1518192474933529</v>
+      </c>
+      <c r="AA8">
+        <v>0.1899157770892455</v>
+      </c>
+      <c r="AB8">
+        <v>3758.445889647975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9">
+        <v>795</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>95</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <v>1.44</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>315.5672846210098</v>
+      </c>
+      <c r="K9">
+        <v>308.7223334964419</v>
+      </c>
+      <c r="L9">
+        <v>6.382567124567919</v>
+      </c>
+      <c r="M9">
+        <v>0.462384</v>
+      </c>
+      <c r="N9">
+        <v>1825.688526914009</v>
+      </c>
+      <c r="O9">
+        <v>1.600297211061312</v>
+      </c>
+      <c r="P9">
+        <v>87.26473052159845</v>
+      </c>
+      <c r="Q9">
+        <v>14.97543614423513</v>
+      </c>
+      <c r="R9">
+        <v>158.2312639718998</v>
+      </c>
+      <c r="S9">
+        <v>714.1534535661355</v>
+      </c>
+      <c r="T9">
+        <v>721.1888818974575</v>
+      </c>
+      <c r="U9">
+        <v>106.6014688267687</v>
+      </c>
+      <c r="V9">
+        <v>141.9862720912144</v>
+      </c>
+      <c r="W9">
+        <v>329.0658758302988</v>
+      </c>
+      <c r="X9">
+        <v>0.22</v>
+      </c>
+      <c r="Y9">
+        <v>20</v>
+      </c>
+      <c r="Z9">
+        <v>0.1354572871669198</v>
+      </c>
+      <c r="AA9">
+        <v>0.1911336213955441</v>
+      </c>
+      <c r="AB9">
+        <v>4235.38725659028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10">
+        <v>850</v>
+      </c>
+      <c r="B10">
+        <v>0.25</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>95</v>
+      </c>
+      <c r="E10">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>1.41</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>41</v>
+      </c>
+      <c r="J10">
+        <v>318.1605720297794</v>
+      </c>
+      <c r="K10">
+        <v>310.9794742778424</v>
+      </c>
+      <c r="L10">
+        <v>6.695001751936985</v>
+      </c>
+      <c r="M10">
+        <v>0.486096</v>
+      </c>
+      <c r="N10">
+        <v>1957.421365761269</v>
+      </c>
+      <c r="O10">
+        <v>1.475566451791665</v>
+      </c>
+      <c r="P10">
+        <v>81.56493581291582</v>
+      </c>
+      <c r="Q10">
+        <v>17.38176695177093</v>
+      </c>
+      <c r="R10">
+        <v>194.9104040999428</v>
+      </c>
+      <c r="S10">
+        <v>736.8913321080959</v>
+      </c>
+      <c r="T10">
+        <v>796.7999854054306</v>
+      </c>
+      <c r="U10">
+        <v>111.6288083188945</v>
+      </c>
+      <c r="V10">
+        <v>147.1047495572043</v>
+      </c>
+      <c r="W10">
+        <v>333.4884286659301</v>
+      </c>
+      <c r="X10">
+        <v>0.2</v>
+      </c>
+      <c r="Y10">
+        <v>20</v>
+      </c>
+      <c r="Z10">
+        <v>0.1267629656094634</v>
+      </c>
+      <c r="AA10">
+        <v>0.1836815559340868</v>
+      </c>
+      <c r="AB10">
+        <v>4351.844650375696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11">
+        <v>730</v>
+      </c>
+      <c r="B11">
+        <v>0.25</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <v>1.44</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>41</v>
+      </c>
+      <c r="J11">
+        <v>330.6773182113479</v>
+      </c>
+      <c r="K11">
+        <v>323.4962204594109</v>
+      </c>
+      <c r="L11">
+        <v>6.695001751936985</v>
+      </c>
+      <c r="M11">
+        <v>0.486096</v>
+      </c>
+      <c r="N11">
+        <v>1589.558818867898</v>
+      </c>
+      <c r="O11">
+        <v>1.612267930860758</v>
+      </c>
+      <c r="P11">
+        <v>94.47129156060055</v>
+      </c>
+      <c r="Q11">
+        <v>12.03214345017363</v>
+      </c>
+      <c r="R11">
+        <v>144.0887116576574</v>
+      </c>
+      <c r="S11">
+        <v>681.1586824645404</v>
+      </c>
+      <c r="T11">
+        <v>528.0181159993156</v>
+      </c>
+      <c r="U11">
+        <v>111.6288083188945</v>
+      </c>
+      <c r="V11">
+        <v>147.1047495572043</v>
+      </c>
+      <c r="W11">
+        <v>337.2668616258822</v>
+      </c>
+      <c r="X11">
+        <v>0.22</v>
+      </c>
+      <c r="Y11">
+        <v>20</v>
+      </c>
+      <c r="Z11">
+        <v>0.1474728244946146</v>
+      </c>
+      <c r="AA11">
+        <v>0.1919684043810427</v>
+      </c>
+      <c r="AB11">
+        <v>3906.08350709008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12">
+        <v>710</v>
+      </c>
+      <c r="B12">
+        <v>0.25</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>95</v>
+      </c>
+      <c r="E12">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>1.44</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>41</v>
+      </c>
+      <c r="J12">
+        <v>333.4825060501231</v>
+      </c>
+      <c r="K12">
+        <v>326.3014082981861</v>
+      </c>
+      <c r="L12">
+        <v>6.695001751936985</v>
+      </c>
+      <c r="M12">
+        <v>0.486096</v>
+      </c>
+      <c r="N12">
+        <v>1538.866307409573</v>
+      </c>
+      <c r="O12">
+        <v>1.667039817763725</v>
+      </c>
+      <c r="P12">
+        <v>97.3117806549993</v>
+      </c>
+      <c r="Q12">
+        <v>11.01282631687021</v>
+      </c>
+      <c r="R12">
+        <v>142.9000070304073</v>
+      </c>
+      <c r="S12">
+        <v>667.7470867759902</v>
+      </c>
+      <c r="T12">
+        <v>490.0722260931785</v>
+      </c>
+      <c r="U12">
+        <v>111.6288083188945</v>
+      </c>
+      <c r="V12">
+        <v>147.1047495572043</v>
+      </c>
+      <c r="W12">
+        <v>336.0050750782215</v>
+      </c>
+      <c r="X12">
+        <v>0.24</v>
+      </c>
+      <c r="Y12">
+        <v>20</v>
+      </c>
+      <c r="Z12">
+        <v>0.1518574843111021</v>
+      </c>
+      <c r="AA12">
+        <v>0.1946885228057802</v>
+      </c>
+      <c r="AB12">
+        <v>3852.898845561243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13">
+        <v>715</v>
+      </c>
+      <c r="B13">
+        <v>0.25</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>95</v>
+      </c>
+      <c r="E13">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>39</v>
+      </c>
+      <c r="G13">
+        <v>1.44</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>41</v>
+      </c>
+      <c r="J13">
+        <v>333.2146338916959</v>
+      </c>
+      <c r="K13">
+        <v>325.8118457275131</v>
+      </c>
+      <c r="L13">
+        <v>6.904836164182793</v>
+      </c>
+      <c r="M13">
+        <v>0.497952</v>
+      </c>
+      <c r="N13">
+        <v>1529.987330547688</v>
+      </c>
+      <c r="O13">
+        <v>1.651422917957947</v>
+      </c>
+      <c r="P13">
+        <v>96.50188280237984</v>
+      </c>
+      <c r="Q13">
+        <v>11.04891399702813</v>
+      </c>
+      <c r="R13">
+        <v>141.454047652008</v>
+      </c>
+      <c r="S13">
+        <v>677.0142187092051</v>
+      </c>
+      <c r="T13">
+        <v>474.1562115993873</v>
+      </c>
+      <c r="U13">
+        <v>106.6014688267687</v>
+      </c>
+      <c r="V13">
+        <v>143.9664858490693</v>
+      </c>
+      <c r="W13">
+        <v>344.3015111198839</v>
+      </c>
+      <c r="X13">
+        <v>0.18</v>
+      </c>
+      <c r="Y13">
+        <v>20</v>
+      </c>
+      <c r="Z13">
+        <v>0.1506073029332392</v>
+      </c>
+      <c r="AA13">
+        <v>0.191221755781045</v>
+      </c>
+      <c r="AB13">
+        <v>3810.941233721285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14">
+        <v>805</v>
+      </c>
+      <c r="B14">
+        <v>0.25</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>1.44</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>41</v>
+      </c>
+      <c r="J14">
+        <v>321.0050898554254</v>
+      </c>
+      <c r="K14">
+        <v>314.048503104619</v>
+      </c>
+      <c r="L14">
+        <v>6.484266750806312</v>
+      </c>
+      <c r="M14">
+        <v>0.47232</v>
+      </c>
+      <c r="N14">
+        <v>2062.194580719842</v>
+      </c>
+      <c r="O14">
+        <v>12.30563310628844</v>
+      </c>
+      <c r="P14">
+        <v>152.1960126043004</v>
+      </c>
+      <c r="Q14">
+        <v>15.0536913803757</v>
+      </c>
+      <c r="R14">
+        <v>195.679708871678</v>
+      </c>
+      <c r="S14">
+        <v>723.8224061587143</v>
+      </c>
+      <c r="T14">
+        <v>834.843616746823</v>
+      </c>
+      <c r="U14">
+        <v>111.6288083188945</v>
+      </c>
+      <c r="V14">
+        <v>145.1256678019792</v>
+      </c>
+      <c r="W14">
+        <v>323.2951414738546</v>
+      </c>
+      <c r="X14">
+        <v>0.22</v>
+      </c>
+      <c r="Y14">
+        <v>20</v>
+      </c>
+      <c r="Z14">
+        <v>0.1338015638570074</v>
+      </c>
+      <c r="AA14">
+        <v>0.1932730311860874</v>
+      </c>
+      <c r="AB14">
+        <v>4336.666716187802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15">
+        <v>845</v>
+      </c>
+      <c r="B15">
+        <v>0.25</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <v>1.41</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>41</v>
+      </c>
+      <c r="J15">
+        <v>318.4329401182706</v>
+      </c>
+      <c r="K15">
+        <v>311.2277284081991</v>
+      </c>
+      <c r="L15">
+        <v>6.718491710071492</v>
+      </c>
+      <c r="M15">
+        <v>0.48672</v>
+      </c>
+      <c r="N15">
+        <v>2059.261822843391</v>
+      </c>
+      <c r="O15">
+        <v>1.48518022034876</v>
+      </c>
+      <c r="P15">
+        <v>82.00425412920839</v>
+      </c>
+      <c r="Q15">
+        <v>17.53993129149308</v>
+      </c>
+      <c r="R15">
+        <v>199.0647624039438</v>
+      </c>
+      <c r="S15">
+        <v>734.5520965380258</v>
+      </c>
+      <c r="T15">
+        <v>896.2314156141657</v>
+      </c>
+      <c r="U15">
+        <v>106.6014688267687</v>
+      </c>
+      <c r="V15">
+        <v>141.9862720912144</v>
+      </c>
+      <c r="W15">
+        <v>322.1491249786592</v>
+      </c>
+      <c r="X15">
+        <v>0.22</v>
+      </c>
+      <c r="Y15">
+        <v>20</v>
+      </c>
+      <c r="Z15">
+        <v>0.1274330905706501</v>
+      </c>
+      <c r="AA15">
+        <v>0.1884867467801931</v>
+      </c>
+      <c r="AB15">
+        <v>4439.422064022328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16">
+        <v>720</v>
+      </c>
+      <c r="B16">
+        <v>0.25</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>39</v>
+      </c>
+      <c r="G16">
+        <v>1.44</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>41</v>
+      </c>
+      <c r="J16">
+        <v>328.2256417629715</v>
+      </c>
+      <c r="K16">
+        <v>321.0204300529001</v>
+      </c>
+      <c r="L16">
+        <v>6.718491710071492</v>
+      </c>
+      <c r="M16">
+        <v>0.48672</v>
+      </c>
+      <c r="N16">
+        <v>1638.373906934431</v>
+      </c>
+      <c r="O16">
+        <v>1.637629289302704</v>
+      </c>
+      <c r="P16">
+        <v>95.78654042542617</v>
+      </c>
+      <c r="Q16">
+        <v>11.73533464179826</v>
+      </c>
+      <c r="R16">
+        <v>145.2706216648172</v>
+      </c>
+      <c r="S16">
+        <v>675.1387087565664</v>
+      </c>
+      <c r="T16">
+        <v>580.6389686032605</v>
+      </c>
+      <c r="U16">
+        <v>106.6014688267687</v>
+      </c>
+      <c r="V16">
+        <v>141.9862720912144</v>
+      </c>
+      <c r="W16">
+        <v>327.0917824052194</v>
+      </c>
+      <c r="X16">
+        <v>0.22</v>
+      </c>
+      <c r="Y16">
+        <v>20</v>
+      </c>
+      <c r="Z16">
+        <v>0.1495030800789975</v>
+      </c>
+      <c r="AA16">
+        <v>0.1961230617379952</v>
+      </c>
+      <c r="AB16">
+        <v>3935.954501407478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17">
+        <v>705</v>
+      </c>
+      <c r="B17">
+        <v>0.25</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>39</v>
+      </c>
+      <c r="G17">
+        <v>1.44</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>41</v>
+      </c>
+      <c r="J17">
+        <v>331.0746426528787</v>
+      </c>
+      <c r="K17">
+        <v>323.8694309428072</v>
+      </c>
+      <c r="L17">
+        <v>6.718491710071492</v>
+      </c>
+      <c r="M17">
+        <v>0.48672</v>
+      </c>
+      <c r="N17">
+        <v>1597.100562555471</v>
+      </c>
+      <c r="O17">
+        <v>1.68104225544109</v>
+      </c>
+      <c r="P17">
+        <v>98.03795194042561</v>
+      </c>
+      <c r="Q17">
+        <v>10.99762020786568</v>
+      </c>
+      <c r="R17">
+        <v>144.5582918422519</v>
+      </c>
+      <c r="S17">
+        <v>665.0368479358223</v>
+      </c>
+      <c r="T17">
+        <v>548.6385873062878</v>
+      </c>
+      <c r="U17">
+        <v>106.6014688267687</v>
+      </c>
+      <c r="V17">
+        <v>141.9862720912144</v>
+      </c>
+      <c r="W17">
+        <v>325.8996902682065</v>
+      </c>
+      <c r="X17">
+        <v>0.24</v>
+      </c>
+      <c r="Y17">
+        <v>20</v>
+      </c>
+      <c r="Z17">
+        <v>0.1529784229766912</v>
+      </c>
+      <c r="AA17">
+        <v>0.1985387391518675</v>
+      </c>
+      <c r="AB17">
+        <v>3901.425201451603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18">
+        <v>815</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>105</v>
+      </c>
+      <c r="E18">
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <v>39</v>
+      </c>
+      <c r="G18">
+        <v>1.44</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>41</v>
+      </c>
+      <c r="J18">
+        <v>320.2154452006655</v>
+      </c>
+      <c r="K18">
+        <v>313.2573103745376</v>
+      </c>
+      <c r="L18">
+        <v>6.486390826127931</v>
+      </c>
+      <c r="M18">
+        <v>0.4717440000000001</v>
+      </c>
+      <c r="N18">
+        <v>2150.553970158451</v>
+      </c>
+      <c r="O18">
+        <v>1.553754146207067</v>
+      </c>
+      <c r="P18">
+        <v>85.13786208645496</v>
+      </c>
+      <c r="Q18">
+        <v>16.26535406989679</v>
+      </c>
+      <c r="R18">
+        <v>202.9969279555297</v>
+      </c>
+      <c r="S18">
+        <v>730.2937650897585</v>
+      </c>
+      <c r="T18">
+        <v>985.9924029258533</v>
+      </c>
+      <c r="U18">
+        <v>106.6014688267687</v>
+      </c>
+      <c r="V18">
+        <v>140.0066373759883</v>
+      </c>
+      <c r="W18">
+        <v>312.1905009766735</v>
+      </c>
+      <c r="X18">
+        <v>0.24</v>
+      </c>
+      <c r="Y18">
+        <v>20</v>
+      </c>
+      <c r="Z18">
+        <v>0.1322130162710974</v>
+      </c>
+      <c r="AA18">
+        <v>0.1982422766085415</v>
+      </c>
+      <c r="AB18">
+        <v>4503.423541185029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19">
+        <v>710</v>
+      </c>
+      <c r="B19">
+        <v>0.25</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>105</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <v>41</v>
+      </c>
+      <c r="G19">
+        <v>1.44</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>41</v>
+      </c>
+      <c r="J19">
+        <v>333.427163862618</v>
+      </c>
+      <c r="K19">
+        <v>326.1227477742714</v>
+      </c>
+      <c r="L19">
+        <v>6.808480088346628</v>
+      </c>
+      <c r="M19">
+        <v>0.495936</v>
+      </c>
+      <c r="N19">
+        <v>1678.883170267957</v>
+      </c>
+      <c r="O19">
+        <v>1.663763549112114</v>
+      </c>
+      <c r="P19">
+        <v>97.14187222384176</v>
+      </c>
+      <c r="Q19">
+        <v>11.38975806587092</v>
+      </c>
+      <c r="R19">
+        <v>146.0484635990716</v>
+      </c>
+      <c r="S19">
+        <v>670.9397932504166</v>
+      </c>
+      <c r="T19">
+        <v>623.5441788592805</v>
+      </c>
+      <c r="U19">
+        <v>111.6288083188945</v>
+      </c>
+      <c r="V19">
+        <v>145.1256678019792</v>
+      </c>
+      <c r="W19">
+        <v>321.5398766156432</v>
+      </c>
+      <c r="X19">
+        <v>0.22</v>
+      </c>
+      <c r="Y19">
+        <v>20</v>
+      </c>
+      <c r="Z19">
+        <v>0.151595208820572</v>
+      </c>
+      <c r="AA19">
+        <v>0.1997296804581154</v>
+      </c>
+      <c r="AB19">
+        <v>3952.663691578134</v>
       </c>
     </row>
   </sheetData>
